--- a/java/Docker.xlsx
+++ b/java/Docker.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="镜像命令" sheetId="2" r:id="rId2"/>
+    <sheet name="容器命令" sheetId="3" r:id="rId3"/>
+    <sheet name="安装Nginx" sheetId="4" r:id="rId4"/>
+    <sheet name="部署tomcat" sheetId="5" r:id="rId5"/>
+    <sheet name="部署ES+Kibana" sheetId="6" r:id="rId6"/>
+    <sheet name="可视化面板" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
   <si>
     <t>Docker官网</t>
   </si>
@@ -103,6 +107,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>卸载旧版本(</t>
     </r>
     <r>
@@ -153,6 +164,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>推荐用阿里的</t>
     </r>
     <r>
@@ -209,6 +227,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>卸载 Docker 引擎（</t>
     </r>
     <r>
@@ -251,6 +276,430 @@
 EOF
 sudo systemctl daemon-reload
 sudo systemctl restart docker</t>
+  </si>
+  <si>
+    <t>版本信息</t>
+  </si>
+  <si>
+    <t>docker系统信息</t>
+  </si>
+  <si>
+    <t>docker info</t>
+  </si>
+  <si>
+    <t>帮助命令</t>
+  </si>
+  <si>
+    <t>docker --help</t>
+  </si>
+  <si>
+    <t>官网命令位置</t>
+  </si>
+  <si>
+    <t>https://docs.docker.com/engine/reference/commandline/images/#examples</t>
+  </si>
+  <si>
+    <t>列出最近创建的镜像</t>
+  </si>
+  <si>
+    <t>docker images --help</t>
+  </si>
+  <si>
+    <t>显示所有图像</t>
+  </si>
+  <si>
+    <t>docker images -a
+docker images --all</t>
+  </si>
+  <si>
+    <t>搜索镜像</t>
+  </si>
+  <si>
+    <t>docker search  mysql</t>
+  </si>
+  <si>
+    <t>过滤，要3000以上</t>
+  </si>
+  <si>
+    <t>docker search mysql --filter=stars=3000</t>
+  </si>
+  <si>
+    <t>docker pull --help</t>
+  </si>
+  <si>
+    <t>下载镜像</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">docker pull mysql
+docker pull docker.io/library/mysql:latest   等价的
+docker pull mysql:5.7 指定版本 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>镜像有哪些版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：docker pull页里有Docker Hub网址</t>
+    </r>
+  </si>
+  <si>
+    <t>删除镜像</t>
+  </si>
+  <si>
+    <t>docker images    获取删除需要的id或名称，推荐用id
+docker rmi -f {id}        删除指定容器
+docker rmi -f $(docker images -aq)  删除全部容器</t>
+  </si>
+  <si>
+    <t>容器命令</t>
+  </si>
+  <si>
+    <t>有了镜像才可以创建容器</t>
+  </si>
+  <si>
+    <t>下载centos镜像</t>
+  </si>
+  <si>
+    <t>docker pull centos</t>
+  </si>
+  <si>
+    <t>启动容器</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker run [可选参数] image
+docker run --name="centos" image   用下面的
+docker run -it centos /bin/bash    启动并进入容器
+ls   和外面目录一样
+exit   容器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>停止并退回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主机</t>
+    </r>
+  </si>
+  <si>
+    <t>查看日志</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ctr + p + q容器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不停止退出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+docker run -d centos /bin/sh -c "while true;do echo sky0010102;sleep 1;done"
+后台启动，编写一段shell脚本
+docker ps
+docker logs -tf --tail 10 {id}   查看日志</t>
+    </r>
+  </si>
+  <si>
+    <t>列出所有运行的容器</t>
+  </si>
+  <si>
+    <t>docker ps   列出当前正在运行的容器
+docker ps -a    列出当前正在运行的容器 + 历史运行的容器</t>
+  </si>
+  <si>
+    <t>删除容器</t>
+  </si>
+  <si>
+    <t>docker ps -a    获取下面需要的id
+docker rm {id}   删除指定的容器
+docker rm -f $(docker ps -aq)    删除所有的容器</t>
+  </si>
+  <si>
+    <t>启动和停止容器</t>
+  </si>
+  <si>
+    <t>docker ps
+docker start {id}   启动容器
+docker restart {id}   重启容器
+docker stop {id}   停止当前正在运行的容器
+docker kill {id}   强制停止当前容器</t>
+  </si>
+  <si>
+    <t>查看容器中进程信息</t>
+  </si>
+  <si>
+    <t>docker ps
+docker top {id}</t>
+  </si>
+  <si>
+    <t>查看镜像元信息</t>
+  </si>
+  <si>
+    <t>docker ps
+docker inspect {id}</t>
+  </si>
+  <si>
+    <t>进入当前正在运行的容器</t>
+  </si>
+  <si>
+    <t>docker ps
+docker exec -it {id} /bin/bash   或 docker attach {id}  对比这个不会开启新终端
+ls
+ps -ef</t>
+  </si>
+  <si>
+    <t>从容器内拷贝文件到主机</t>
+  </si>
+  <si>
+    <t>ls    查看当前主机目录下
+docker ps
+docker exec -it {id} /bin/bash   进入容器
+cd /home
+touch test.java   新建文件
+exit 停止并退出容器
+docker cp {id}:/home/test.java /home</t>
+  </si>
+  <si>
+    <t>搜索Nginx镜像</t>
+  </si>
+  <si>
+    <t>docker search Nginx</t>
+  </si>
+  <si>
+    <t>下载Nginx镜像</t>
+  </si>
+  <si>
+    <t>docker pull nginx</t>
+  </si>
+  <si>
+    <t>列出最近创建的图像</t>
+  </si>
+  <si>
+    <t>启动nginx</t>
+  </si>
+  <si>
+    <t>docker run -d --name nginx01 -p 3344:80 nginx
+-d后台运行
+--name nginx01  起个名字
+-p 3344:80 改动端口为3344</t>
+  </si>
+  <si>
+    <t>docker ps</t>
+  </si>
+  <si>
+    <t>主机内运行测试</t>
+  </si>
+  <si>
+    <t>curl localhost:3344</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览器访问（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主机用的是公网IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>http://39.108.174.145:3344</t>
+  </si>
+  <si>
+    <t>docker exec -it {id} /bin/bash</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>cd /etc/nginx</t>
+  </si>
+  <si>
+    <t>官方使用，运行tomcat</t>
+  </si>
+  <si>
+    <t>docker run -it --rm tomcat:9.0       用完即刻删除，前期不建议</t>
+  </si>
+  <si>
+    <t>没有看到tomcat</t>
+  </si>
+  <si>
+    <t>docker ps -a</t>
+  </si>
+  <si>
+    <t>下载tomcat</t>
+  </si>
+  <si>
+    <t>docker pull tomcat</t>
+  </si>
+  <si>
+    <t>运行tomcat</t>
+  </si>
+  <si>
+    <t>docker run -d -p 3355:8080 --name tomcat01 tomcat</t>
+  </si>
+  <si>
+    <r>
+      <t>浏览器访问（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主机用的是公网IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+404原因下面</t>
+    </r>
+  </si>
+  <si>
+    <t>http://39.108.174.145:3355</t>
+  </si>
+  <si>
+    <t>cd /webapps    找不到，原因最小的镜像</t>
+  </si>
+  <si>
+    <t>复制，解决404</t>
+  </si>
+  <si>
+    <t>cp -r webapps.dist/* webapps</t>
+  </si>
+  <si>
+    <t>启动elasticsearch
+会卡,耗内存，停掉别的容器
+运行已存在，改个--name **就行</t>
+  </si>
+  <si>
+    <t>docker run -d --name elasticsearch04 -p 9200:9200 -p 9300:9300 -e "discovery.type=single-node" elasticsearch:7.6.2</t>
+  </si>
+  <si>
+    <t>查看cpu状态</t>
+  </si>
+  <si>
+    <t>docker stats {id}</t>
+  </si>
+  <si>
+    <t>curl localhost:9200</t>
+  </si>
+  <si>
+    <t>可视化面板</t>
+  </si>
+  <si>
+    <t>Portainer 先用这个
+Rancher  CI/CD再用</t>
+  </si>
+  <si>
+    <t>Portainer启动</t>
+  </si>
+  <si>
+    <t>docker run -d -p 8088:9000 \
+--restart=always -v /var/run/docker.sock:/var/run/docker.sock --privileged=true portainer/portainer</t>
+  </si>
+  <si>
+    <t>http://39.108.174.145:8088</t>
+  </si>
+  <si>
+    <t>admin
+Lu123456</t>
+  </si>
+  <si>
+    <t>登陆后，选Local, 点Connect</t>
   </si>
 </sst>
 </file>
@@ -873,26 +1322,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1402,7 +1854,7 @@
   <sheetPr/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1416,15 +1868,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1432,43 +1884,43 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="1"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -1476,19 +1928,19 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" ht="115.2" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1504,7 +1956,7 @@
       </c>
     </row>
     <row r="16" ht="57.6" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1512,13 +1964,13 @@
       </c>
     </row>
     <row r="17" ht="57.6" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1566,10 +2018,10 @@
       </c>
     </row>
     <row r="24" ht="72" spans="1:2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1577,7 +2029,7 @@
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1602,14 +2054,121 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="43.2" spans="1:2">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" ht="43.2" spans="1:2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="https://docs.docker.com/engine/reference/commandline/images/#examples" tooltip="https://docs.docker.com/engine/reference/commandline/images/#examples"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1619,16 +2178,419 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" ht="72" spans="1:2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" ht="72" spans="1:2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:2">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" ht="72" spans="1:2">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:2">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:2">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" ht="57.6" spans="1:2">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" ht="100.8" spans="1:2">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="57.6" spans="1:2">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="http://39.108.174.145:3344" tooltip="http://39.108.174.145:3344"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="http://39.108.174.145:3355" tooltip="http://39.108.174.145:3355"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="43.2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="28.8" spans="1:2">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="http://39.108.174.145:8088" tooltip="http://39.108.174.145:8088"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/java/Docker.xlsx
+++ b/java/Docker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,17 @@
     <sheet name="部署tomcat" sheetId="5" r:id="rId5"/>
     <sheet name="部署ES+Kibana" sheetId="6" r:id="rId6"/>
     <sheet name="可视化面板" sheetId="7" r:id="rId7"/>
+    <sheet name="容器数据卷" sheetId="8" r:id="rId8"/>
+    <sheet name="mysql同步数据" sheetId="9" r:id="rId9"/>
+    <sheet name="Dockerfile" sheetId="10" r:id="rId10"/>
+    <sheet name="数据卷容器同步" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="170">
   <si>
     <t>Docker官网</t>
   </si>
@@ -384,9 +388,26 @@
     <t>docker pull centos</t>
   </si>
   <si>
-    <t>启动容器</t>
-  </si>
-  <si>
+    <t>启动容器
+-t 生成</t>
+  </si>
+  <si>
+    <r>
+      <t>docker images     有下面需要的id、name、tag
+docker run [可选参数] image    只是语法，看看就好
+docker run --name="centos" image     方式1
+docker run -it centos /bin/bash    启动并进入容器   方式2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>推荐</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -395,9 +416,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>docker run [可选参数] image
-docker run --name="centos" image   用下面的
-docker run -it centos /bin/bash    启动并进入容器
+      <t xml:space="preserve">
+docker run -it --name docker02 {id}/{name:tag}    方式3
 ls   和外面目录一样
 exit   容器</t>
     </r>
@@ -624,6 +644,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>浏览器访问（</t>
     </r>
     <r>
@@ -658,7 +685,16 @@
     <t>复制，解决404</t>
   </si>
   <si>
-    <t>cp -r webapps.dist/* webapps</t>
+    <t>cp -r webapps.dist/* webapps
+-r是递归</t>
+  </si>
+  <si>
+    <t>commit提交镜像
+镜像加层，以后用这个就好</t>
+  </si>
+  <si>
+    <t>docker commit -a="作者" -m="提交的描述信息" {id} tomcat_name:21.0
+tomcat_name:21.0   表示起名和版本</t>
   </si>
   <si>
     <t>启动elasticsearch
@@ -700,6 +736,317 @@
   </si>
   <si>
     <t>登陆后，选Local, 点Connect</t>
+  </si>
+  <si>
+    <t>文件夹映射方式1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">新建容器，映射共享
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-v 数据卷挂载</t>
+    </r>
+  </si>
+  <si>
+    <t>docker run -it -v /home/ceshi:/home centos /bin/bash    开启并进入容器
+ls
+cd /home
+touch fr     容器里新建文件</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">exit 退出容器  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开新终端好点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+docker ps
+docker inspect {id}
+看Mounts卷挂载的路径
+cd /home/ceshi      同步了，这个目录也看到了新建的文件
+vim fr    修改后，容器了也同步了，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>双向的</t>
+    </r>
+  </si>
+  <si>
+    <t>docker search mysql</t>
+  </si>
+  <si>
+    <t>docker pull mysql:5.7</t>
+  </si>
+  <si>
+    <t>运行
+-d 后台运行
+-p 端口映射
+-v 数据卷挂载
+-e 环境配置，这里配置密码
+--name 容器名字</t>
+  </si>
+  <si>
+    <t>docker run -d -p 3310:3306 -v /home/mysql/conf:/etc/mysql/conf.d -v /home/mysql/data:/var/lib/mysql -e MYSQL_ROOT_PASSWORD=123456 --name mysql01 mysql:5.7</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>用SQLyog连接   新建数据库   看cd /home/mysql/data    ls的变化</t>
+  </si>
+  <si>
+    <t>改配置,略</t>
+  </si>
+  <si>
+    <t>cd /home/mysql/conf</t>
+  </si>
+  <si>
+    <r>
+      <t>docker rm {id}
+cd /home/mysql/data   数据没丢失，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现了容器数据持久化功能</t>
+    </r>
+  </si>
+  <si>
+    <t>匿名挂载</t>
+  </si>
+  <si>
+    <t>docker run -d -P --name nginx06 -v /etc/nginx nginx
+-P 大写P,是随机端口</t>
+  </si>
+  <si>
+    <t>查看所有卷的情况</t>
+  </si>
+  <si>
+    <t>docker volume ls      发现匿名挂载卷名是乱码</t>
+  </si>
+  <si>
+    <t>具名挂载</t>
+  </si>
+  <si>
+    <t>docker run -d -P --name nginx07 -v juming-nginx:/etc/nginx nginx
+juming-nginx是卷名</t>
+  </si>
+  <si>
+    <t>docker volume ls</t>
+  </si>
+  <si>
+    <t>查看卷具体路径</t>
+  </si>
+  <si>
+    <t>docker volume inspect juming-nginx
+cd /var/lib/docker/volumes  容器里的卷没用指定目录，默认就是这目录
+ls</t>
+  </si>
+  <si>
+    <t>ro 只读 readonly
+rw 可读可写 readwrite</t>
+  </si>
+  <si>
+    <t>docker run -d -P --name nginx07 -v juming-nginx:/etc/nginx:ro nginx
+docker run -d -P --name nginx07 -v juming-nginx:/etc/nginx:rw nginx</t>
+  </si>
+  <si>
+    <t>文件夹映射方式2</t>
+  </si>
+  <si>
+    <t>cd /home</t>
+  </si>
+  <si>
+    <t>新建文件夹</t>
+  </si>
+  <si>
+    <t>mkdir dockerfile</t>
+  </si>
+  <si>
+    <t>touch sky</t>
+  </si>
+  <si>
+    <t>VOLUME是匿名挂载命令
+每条语句就是镜像的一层</t>
+  </si>
+  <si>
+    <t>vim sky
+输入脚本
+FROM centos
+VOLUME ["volume01", "volume02"]
+CMD echo "---end---"
+CMD /bin/bash</t>
+  </si>
+  <si>
+    <t>cat sky</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">文件构建镜像
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建就挂载</t>
+    </r>
+  </si>
+  <si>
+    <t>cd /home
+docker build -f /home/dockerfile/sky -t dockerfile/centos:26.0 .
+-f 地址路径
+-t 生成</t>
+  </si>
+  <si>
+    <t>启动容器</t>
+  </si>
+  <si>
+    <t>docker run -it {id} /bin/bash</t>
+  </si>
+  <si>
+    <t>查看所有目录</t>
+  </si>
+  <si>
+    <t>ls -l
+看到了volume01和volume02挂载的</t>
+  </si>
+  <si>
+    <t>进入数据卷</t>
+  </si>
+  <si>
+    <t>cd volume01</t>
+  </si>
+  <si>
+    <t>touch y6.txt</t>
+  </si>
+  <si>
+    <r>
+      <t>exit 退出容器  开新终端好点
+docker ps
+docker inspect {id}
+看Mounts卷挂载的路径
+cd /var/lib/docker/volumes/a1251a40a7b8ff573fe63190f1cb3c79db20618e0f7a894e819d5c8ca6239e72/_data
+ls    看到了y6文件，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同步了</t>
+    </r>
+  </si>
+  <si>
+    <t>启动容器1</t>
+  </si>
+  <si>
+    <t>docker run -it --name docker03 dockerfile/centos:26.0
+用的是方式3</t>
+  </si>
+  <si>
+    <t>ls -l    看到有volume01数据卷</t>
+  </si>
+  <si>
+    <r>
+      <t>启动容器2,并同步容器1
+--volumes-from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现容器间的数据共享</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>新开终端
+cd /home
+docker run -it --name docker04 --volumes-from docker03 dockerfile/centos:26.0
+cd volume01
+touch h1
+ls    有h1文件了    去容器1 cd volume01 ls 也看到h1文件了   说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>容器同步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <t>删除docker03容器，docker04数据还在</t>
+  </si>
+  <si>
+    <t>多个mysql实现数据共享</t>
+  </si>
+  <si>
+    <t>docker run -d -p 3310:3306 -v /etc/mysql/conf.d -v /var/lib/mysql -e MYSQL_ROOT_PASSWORD=123456 --name mysql01 mysql:5.7</t>
+  </si>
+  <si>
+    <t>docker run -d -p 3310:3306 -e MYSQL_ROOT_PASSWORD=123456 --name mysql02 --volumes-from mysql01 mysql:5.7</t>
   </si>
 </sst>
 </file>
@@ -872,12 +1219,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1180,10 +1533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,16 +1545,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1213,10 +1566,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,28 +1590,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1267,19 +1620,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1291,52 +1641,64 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1868,15 +2230,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1884,43 +2246,43 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="3"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -1928,22 +2290,22 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" ht="115.2" spans="1:2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1956,24 +2318,24 @@
       </c>
     </row>
     <row r="16" ht="57.6" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" ht="57.6" spans="1:2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2002,7 +2364,7 @@
       </c>
     </row>
     <row r="22" ht="57.6" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
@@ -2018,10 +2380,10 @@
       </c>
     </row>
     <row r="24" ht="72" spans="1:2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2029,7 +2391,7 @@
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2051,13 +2413,197 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="100.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" ht="86.4" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" ht="57.6" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:2">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" ht="86.4" spans="2:2">
+      <c r="B13" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:2">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" ht="86.4" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2094,12 +2640,12 @@
       <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="3"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -2113,7 +2659,7 @@
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2121,7 +2667,7 @@
       <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2153,7 +2699,7 @@
       <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2161,7 +2707,7 @@
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2180,8 +2726,8 @@
   <sheetPr/>
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2206,11 +2752,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" ht="72" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" ht="100.8" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2218,7 +2764,7 @@
       <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2226,7 +2772,7 @@
       <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2234,7 +2780,7 @@
       <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2242,7 +2788,7 @@
       <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2250,7 +2796,7 @@
       <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2258,7 +2804,7 @@
       <c r="A10" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2266,7 +2812,7 @@
       <c r="A11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2274,7 +2820,7 @@
       <c r="A12" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2328,7 +2874,7 @@
       <c r="A5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2349,16 +2895,16 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -2390,10 +2936,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2443,10 +2989,10 @@
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2468,12 +3014,25 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" ht="28.8" spans="1:2">
       <c r="A12" t="s">
         <v>103</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2501,11 +3060,11 @@
   </cols>
   <sheetData>
     <row r="2" ht="43.2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>105</v>
+      <c r="A2" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -2515,10 +3074,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2526,7 +3085,7 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2540,8 +3099,8 @@
   <sheetPr/>
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -2552,35 +3111,35 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
+      <c r="A3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>114</v>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
-        <v>115</v>
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2593,4 +3152,175 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="3" ht="57.6" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" ht="86.4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="86.4" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:2">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="11" s="4" customFormat="1"/>
+    <row r="12" ht="28.8" spans="1:2">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:2">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" ht="43.2" spans="1:2">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/java/Docker.xlsx
+++ b/java/Docker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="mysql同步数据" sheetId="9" r:id="rId9"/>
     <sheet name="Dockerfile" sheetId="10" r:id="rId10"/>
     <sheet name="数据卷容器同步" sheetId="11" r:id="rId11"/>
+    <sheet name="构建自己的centos" sheetId="12" r:id="rId12"/>
+    <sheet name="构建tomcat镜像" sheetId="13" r:id="rId13"/>
+    <sheet name="DockerHub" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="242">
   <si>
     <t>Docker官网</t>
   </si>
@@ -364,7 +367,27 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>：docker pull页里有Docker Hub网址</t>
+      <t>：docker pull页里有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Docker Hub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网址</t>
     </r>
   </si>
   <si>
@@ -376,6 +399,15 @@
 docker rmi -f $(docker images -aq)  删除全部容器</t>
   </si>
   <si>
+    <t>Docker Hub账号</t>
+  </si>
+  <si>
+    <t>https://hub.docker.com/
+rafael09
+2693281934@qq.com
+Lu12345678</t>
+  </si>
+  <si>
     <t>容器命令</t>
   </si>
   <si>
@@ -393,6 +425,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>docker images     有下面需要的id、name、tag
 docker run [可选参数] image    只是语法，看看就好
 docker run --name="centos" image     方式1
@@ -417,7 +456,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-docker run -it --name docker02 {id}/{name:tag}    方式3
+docker run -it --name docker02 {id}或{name:tag}    方式3
 ls   和外面目录一样
 exit   容器</t>
     </r>
@@ -679,13 +718,14 @@
     <t>http://39.108.174.145:3355</t>
   </si>
   <si>
-    <t>cd /webapps    找不到，原因最小的镜像</t>
+    <t>cd webapps    找不到，原因最小的镜像</t>
   </si>
   <si>
     <t>复制，解决404</t>
   </si>
   <si>
-    <t>cp -r webapps.dist/* webapps
+    <t>cd ..
+cp -r webapps.dist/* webapps
 -r是递归</t>
   </si>
   <si>
@@ -695,6 +735,12 @@
   <si>
     <t>docker commit -a="作者" -m="提交的描述信息" {id} tomcat_name:21.0
 tomcat_name:21.0   表示起名和版本</t>
+  </si>
+  <si>
+    <t>看Mounts卷挂载的路径</t>
+  </si>
+  <si>
+    <t>docker inspect {id}</t>
   </si>
   <si>
     <t>启动elasticsearch
@@ -738,10 +784,17 @@
     <t>登陆后，选Local, 点Connect</t>
   </si>
   <si>
-    <t>文件夹映射方式1</t>
-  </si>
-  <si>
-    <r>
+    <t>方式1：数据卷挂载实现文件夹映射</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">新建容器，映射共享
 </t>
     </r>
@@ -764,6 +817,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">exit 退出容器  </t>
     </r>
     <r>
@@ -833,6 +893,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>docker rm {id}
 cd /home/mysql/data   数据没丢失，</t>
     </r>
@@ -887,7 +954,7 @@
 docker run -d -P --name nginx07 -v juming-nginx:/etc/nginx:rw nginx</t>
   </si>
   <si>
-    <t>文件夹映射方式2</t>
+    <t>方式2：Dockerfile实现文件夹映射</t>
   </si>
   <si>
     <t>cd /home</t>
@@ -899,7 +966,8 @@
     <t>mkdir dockerfile</t>
   </si>
   <si>
-    <t>touch sky</t>
+    <t>cd dockerfile
+touch sky</t>
   </si>
   <si>
     <t>VOLUME是匿名挂载命令
@@ -918,10 +986,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">文件构建镜像
-</t>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -929,7 +993,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>创建就挂载</t>
+      <t>构建自己的镜像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+创建就挂载</t>
     </r>
   </si>
   <si>
@@ -992,6 +1067,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>启动容器2,并同步容器1
 --volumes-from</t>
     </r>
@@ -1008,6 +1090,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>新开终端
 cd /home
 docker run -it --name docker04 --volumes-from docker03 dockerfile/centos:26.0
@@ -1047,6 +1136,371 @@
   </si>
   <si>
     <t>docker run -d -p 3310:3306 -e MYSQL_ROOT_PASSWORD=123456 --name mysql02 --volumes-from mysql01 mysql:5.7</t>
+  </si>
+  <si>
+    <t>cd dockerfile
+touch draw</t>
+  </si>
+  <si>
+    <t>原来centos不能用vim和ifconfig
+安装vim和net-tools就能用了</t>
+  </si>
+  <si>
+    <t>vim draw
+输入脚本
+FROM centos
+MAINTAINER lulu&lt;254454874@qq.com&gt;
+ENV MYPATH /usr/loccal
+WORKDIR $MYPATH
+RUN yum -y install vim
+RUN yum -y install net-tools
+EXPOSE 80
+CMD echo $MYPATH
+CMD echo "----end----"
+CMD /bin/bash</t>
+  </si>
+  <si>
+    <t>cat draw</t>
+  </si>
+  <si>
+    <t>构建自己的镜像</t>
+  </si>
+  <si>
+    <t>docker build -f /home/dockerfile/draw -t mycentos:8.0 .</t>
+  </si>
+  <si>
+    <t>yum报错？</t>
+  </si>
+  <si>
+    <t>Error: Failed to download metadata for repo 'appstream': Cannot prepare internal mirrorlist: No URLs in mirrorlist</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/hkl_Forever/article/details/125383667</t>
+  </si>
+  <si>
+    <t>docker run -it {id}或{name}</t>
+  </si>
+  <si>
+    <t>vim draw</t>
+  </si>
+  <si>
+    <t>ifconfig</t>
+  </si>
+  <si>
+    <t>变更历史</t>
+  </si>
+  <si>
+    <t>docker history {id}</t>
+  </si>
+  <si>
+    <t>Dockerfile的指令</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>从基础镜像开始构建</t>
+  </si>
+  <si>
+    <t>MAINTAINER</t>
+  </si>
+  <si>
+    <t>镜像是谁写的，姓名+邮箱</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>镜像构建的时候需要运行的命令</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>添加内容，压缩包会自动解压</t>
+  </si>
+  <si>
+    <t>WORKDIR</t>
+  </si>
+  <si>
+    <t>镜像工作目录</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>挂载的目录</t>
+  </si>
+  <si>
+    <t>EXPOSE</t>
+  </si>
+  <si>
+    <t>保留端口配置</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>容器启动要运行的命令，只有最后一个生效</t>
+  </si>
+  <si>
+    <t>ENTRYPOINT</t>
+  </si>
+  <si>
+    <t>容器启动要运行的命令，可以追加命令</t>
+  </si>
+  <si>
+    <t>ONBUILD</t>
+  </si>
+  <si>
+    <t>继承容器触发的命令</t>
+  </si>
+  <si>
+    <t>COPY</t>
+  </si>
+  <si>
+    <t>类似ADD,将文件拷贝到镜像中</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>构建时设置环境变量</t>
+  </si>
+  <si>
+    <t>cd /home
+touch readme.txt
+touch Dockerfile</t>
+  </si>
+  <si>
+    <t>两个压缩包、Dockerfile、readme.txt在同目录下</t>
+  </si>
+  <si>
+    <t>vim Dockerfile
+输入脚本
+FROM centos
+MAINTAINER lulu&lt;254454874@qq.com&gt;
+COPY readme.txt /usr/local/readme.txt
+ADD jdk-11_linux-x64_bin.tar.gz /usr/local
+ADD apache-tomcat-9.0.65.tar.gz /usr/local
+RUN yum -y install vim
+ENV MYPATH /usr/local
+WORKDIR $MYPATH
+ENV JAVA_HOME /usr/local/jdk-11
+ENV CLASSPATH $JAVA_HOME/lib/dt.jar:$JAVA_HOME/lib/tools.jar
+ENV CATALINA_HOME /usr/local/apache-tomcat-9.0.65
+ENV CATALINA_BASE /usr/local/apache-tomcat-9.0.65
+ENV PATH $PATH:$JAVA_HOME/bin:$CATALINA_HOME/lib:$CATALINA_HOME/bin
+EXPOSE 8080
+CMD /usr/local/apache-tomcat-9.0.65/bin/startup.sh &amp;&amp; tail -F /url/local/apache-tomcat-9.0.65/bin/logs/catalina.out</t>
+  </si>
+  <si>
+    <t>构建镜像
+要在目录下：cd /home
+Dockerfile官方默认寻找的文件</t>
+  </si>
+  <si>
+    <t>docker build -t diytomcat .</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">启动镜像
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有卷挂载和日志挂载</t>
+    </r>
+  </si>
+  <si>
+    <t>docker run -d -p 9090:8080 --name lulutomcat -v /home/test:/usr/local/apache-tomcat-9.0.65/webapps/test -v /home/tomcatlogs/:/usr/local/apache-tomcat-9.0.65/logs diytomcat</t>
+  </si>
+  <si>
+    <t>cd /home/test
+mkdir WEB-INF
+cd WEB-INF</t>
+  </si>
+  <si>
+    <t>百度搜索web.xml
+cd /home/test/WEB-INF
+touch web.xml
+vim web.xml</t>
+  </si>
+  <si>
+    <t>&lt;web-app xmlns="http://xmlns.jcp.org/xml/ns/javaee"
+         xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"
+         xsi:schemaLocation="http://xmlns.jcp.org/xml/ns/javaee
+         http://xmlns.jcp.org/xml/ns/javaee/web-app_3_1.xsd"
+         version="3.1"&gt;
+&lt;/web-app&gt;</t>
+  </si>
+  <si>
+    <t>百度搜索jsp
+cd /home/test/
+touch index.jsp
+vim index.jsp</t>
+  </si>
+  <si>
+    <t>&lt;%@ page language="java" contentType="text/html; charset=UTF-8"
+    pageEncoding="UTF-8"%&gt;
+&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head&gt;
+&lt;meta charset="utf-8"&gt;
+&lt;title&gt;菜鸟教程(runoob.com)&lt;/title&gt;
+&lt;/head&gt;
+&lt;body&gt;
+&lt;p&gt;
+   今天的日期是: &lt;%= (new java.util.Date()).toLocaleString()%&gt;
+&lt;/p&gt;
+&lt;/body&gt; 
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>百度搜索html
+jsp太老了，建议用html
+cd /home/test/
+touch ye.html
+vim ye.html</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head&gt;
+    &lt;meta charset="utf-8"&gt;
+    &lt;meta name="viewport" content="width=device-width,initial-scale=1.0"&gt;
+    &lt;style&gt;
+    &lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+    &lt;div id="app"&gt;-----你好呀-----&lt;/div&gt;
+&lt;/body&gt;
+&lt;script&gt;
+&lt;/script&gt;
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>浏览器访问（主机用的是公网IP）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">http://39.108.174.145:9090
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问容器内：cd /usr/local/apache-tomcat-9.0.65/webapps/test
+curl localhost:9090     主机内运行测试(别在容器里，可以新开终端)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">http://39.108.174.145:9090/test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问主机挂载卷：cd /home/test
+curl localhost:9090/test/   主机内运行测试</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker exec -it {id} /bin/bash
+cd /usr/local
+ls  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看jdk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+cd /usr/local/apache-tomcat-9.0.65   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看apache</t>
+    </r>
+  </si>
+  <si>
+    <t>看日志，知道有多少人访问</t>
+  </si>
+  <si>
+    <t>cd /home/tomcatlogs
+ls 或 ll
+cat catalina.out</t>
+  </si>
+  <si>
+    <t>发布镜像到DockerHub</t>
+  </si>
+  <si>
+    <t>docker login --help</t>
+  </si>
+  <si>
+    <t>登录
+连接不上，重启阿里服务器</t>
+  </si>
+  <si>
+    <t>docker login -u rafael09
+密码输入Lu12345678</t>
+  </si>
+  <si>
+    <t>docker push DockerHub用户名/{name}:{tag}
+docker push rafael09/diytomcat:1.0</t>
+  </si>
+  <si>
+    <t>报错：不存在</t>
+  </si>
+  <si>
+    <t>The push refers to repository [docker.io/lulu/diytomcat]
+An image does not exist locally with the tag: lulu/diytomcat</t>
+  </si>
+  <si>
+    <t>解决：建第二个版本推</t>
+  </si>
+  <si>
+    <t>docker tag {id} 作者/{name}:tag
+docker tag {id} rafael09/diytomcat:1.0
+docker images    发现多了个镜像
+docker push rafael09/diytomcat:1.0</t>
   </si>
 </sst>
 </file>
@@ -1059,12 +1513,20 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1106,14 +1568,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,6 +1672,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1225,6 +1686,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1402,12 +1869,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1533,10 +1994,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1545,31 +2006,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1590,28 +2051,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1620,94 +2081,106 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2230,15 +2703,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2246,43 +2719,43 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -2290,22 +2763,22 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" ht="115.2" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2318,24 +2791,24 @@
       </c>
     </row>
     <row r="16" ht="57.6" spans="1:2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" ht="57.6" spans="1:2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2364,7 +2837,7 @@
       </c>
     </row>
     <row r="22" ht="57.6" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
@@ -2380,10 +2853,10 @@
       </c>
     </row>
     <row r="24" ht="72" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2391,7 +2864,7 @@
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2418,8 +2891,8 @@
   <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2429,48 +2902,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="2:2">
+      <c r="B4" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" ht="86.4" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>149</v>
+      <c r="A5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" ht="57.6" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>152</v>
+      <c r="A7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -2480,36 +2953,36 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" ht="86.4" spans="2:2">
-      <c r="B13" s="2" t="s">
-        <v>160</v>
+      <c r="B13" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2543,49 +3016,49 @@
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>165</v>
+      <c r="A6" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2597,13 +3070,425 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="100.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="2:2">
+      <c r="B4" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" ht="172.8" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="https://blog.csdn.net/hkl_Forever/article/details/125383667"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="150.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="43.2" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" ht="360" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="2:2">
+      <c r="B7" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" ht="100.8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" ht="201.6" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" ht="273.6" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" ht="43.2" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" ht="43.2" spans="1:2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" ht="57.6" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" ht="43.2" spans="1:2">
+      <c r="A15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" display="http://39.108.174.145:9090&#10;访问容器内：cd /usr/local/apache-tomcat-9.0.65/webapps/test&#10;curl localhost:9090     主机内运行测试(别在容器里，可以新开终端)" tooltip="http://39.108.174.145:9090"/>
+    <hyperlink ref="B12" r:id="rId2" display="http://39.108.174.145:9090/test&#10;访问主机挂载卷：cd /home/test&#10;curl localhost:9090/test/   主机内运行测试"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:2">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:2">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" ht="57.6" spans="1:2">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B16"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2640,12 +3525,12 @@
       <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="7"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -2659,7 +3544,7 @@
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2667,7 +3552,7 @@
       <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2699,7 +3584,7 @@
       <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2707,8 +3592,16 @@
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="57.6" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2727,7 +3620,7 @@
   <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2738,90 +3631,90 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" ht="100.8" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>60</v>
+      <c r="A4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="72" spans="1:2">
       <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="1:2">
       <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
       <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:2">
       <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="1:2">
       <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" ht="100.8" spans="1:2">
       <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2848,23 +3741,23 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -2872,56 +3765,56 @@
     </row>
     <row r="5" ht="57.6" spans="1:2">
       <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>88</v>
+      <c r="A8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2936,10 +3829,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2950,26 +3843,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2982,57 +3875,65 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>101</v>
+      <c r="A7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" ht="43.2" spans="1:2">
       <c r="A12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>106</v>
+      <c r="A14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3951,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -3060,32 +3961,32 @@
   </cols>
   <sheetData>
     <row r="2" ht="43.2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>107</v>
+      <c r="A2" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3111,35 +4012,35 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>115</v>
+      <c r="A3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>116</v>
+      <c r="A4" s="5"/>
+      <c r="B4" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
-        <v>117</v>
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +4061,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -3170,22 +4071,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="3" ht="57.6" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>121</v>
+      <c r="A3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="2:2">
-      <c r="B4" s="2" t="s">
-        <v>122</v>
+      <c r="B4" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3202,7 +4103,7 @@
   <sheetPr/>
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3217,7 +4118,7 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3225,7 +4126,7 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -3234,89 +4135,89 @@
       </c>
     </row>
     <row r="5" ht="86.4" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>126</v>
+      <c r="A5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>67</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="11" s="4" customFormat="1"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="11" s="11" customFormat="1"/>
     <row r="12" ht="28.8" spans="1:2">
       <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>84</v>
+      <c r="B13" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
       <c r="A15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="1:2">
       <c r="A17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>142</v>
+      <c r="A19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/java/Docker.xlsx
+++ b/java/Docker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" firstSheet="6" activeTab="13"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="数据卷容器同步" sheetId="11" r:id="rId11"/>
     <sheet name="构建自己的centos" sheetId="12" r:id="rId12"/>
     <sheet name="构建tomcat镜像" sheetId="13" r:id="rId13"/>
-    <sheet name="DockerHub" sheetId="14" r:id="rId14"/>
+    <sheet name="发布镜像" sheetId="14" r:id="rId14"/>
+    <sheet name="Docker网络" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="251">
   <si>
     <t>Docker官网</t>
   </si>
@@ -101,16 +102,27 @@
     <t>https://docs.docker.com/engine/install/centos/</t>
   </si>
   <si>
-    <t>环境查看</t>
-  </si>
-  <si>
-    <t>uname -r   系统内核5.10</t>
-  </si>
-  <si>
-    <t>cat /etc/os-release   系统版本</t>
-  </si>
-  <si>
-    <t>cat /etc/redhat-release   检测Centos7版本信息</t>
+    <r>
+      <t>环境查看，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要进入容器的</t>
+    </r>
+  </si>
+  <si>
+    <t>docker run -idt centos  运行容器
+docker ps   有下面需要的id
+docker exec -it {id} /bin/bash   进入正在运行的容器
+cat /etc/redhat-release   检测Centos版本信息  CentOS Linux release 8.4.2105
+cat /etc/os-release   系统版本
+uname -r   系统内核5.10 （容器里或主机都能用）</t>
   </si>
   <si>
     <r>
@@ -569,7 +581,20 @@
 ps -ef</t>
   </si>
   <si>
-    <t>从容器内拷贝文件到主机</t>
+    <r>
+      <t xml:space="preserve">从容器内拷贝文件到主机
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从主机拷贝文件到容器，用的是文件共享，后面有</t>
+    </r>
   </si>
   <si>
     <t>ls    查看当前主机目录下
@@ -871,7 +896,7 @@
   <si>
     <t>运行
 -d 后台运行
--p 端口映射
+-p 端口映射 大写P是随机端口
 -v 数据卷挂载
 -e 环境配置，这里配置密码
 --name 容器名字</t>
@@ -1037,6 +1062,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>exit 退出容器  开新终端好点
 docker ps
 docker inspect {id}
@@ -1304,6 +1336,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">启动镜像
 </t>
     </r>
@@ -1390,6 +1429,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">http://39.108.174.145:9090
 </t>
     </r>
@@ -1407,6 +1454,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">http://39.108.174.145:9090/test
 </t>
     </r>
@@ -1472,6 +1527,9 @@
     <t>发布镜像到DockerHub</t>
   </si>
   <si>
+    <t>登录Docker Hub</t>
+  </si>
+  <si>
     <t>docker login --help</t>
   </si>
   <si>
@@ -1483,24 +1541,64 @@
 密码输入Lu12345678</t>
   </si>
   <si>
+    <t>给镜像生成一个版本号</t>
+  </si>
+  <si>
+    <t>docker tag {id} 作者/{name}:{tag}
+docker tag {id} rafael09/diytomcat:1.0
+docker images    发现多了个镜像</t>
+  </si>
+  <si>
     <t>docker push DockerHub用户名/{name}:{tag}
 docker push rafael09/diytomcat:1.0</t>
   </si>
   <si>
-    <t>报错：不存在</t>
-  </si>
-  <si>
-    <t>The push refers to repository [docker.io/lulu/diytomcat]
-An image does not exist locally with the tag: lulu/diytomcat</t>
-  </si>
-  <si>
-    <t>解决：建第二个版本推</t>
-  </si>
-  <si>
-    <t>docker tag {id} 作者/{name}:tag
-docker tag {id} rafael09/diytomcat:1.0
-docker images    发现多了个镜像
-docker push rafael09/diytomcat:1.0</t>
+    <t>发布镜像到阿里云容器服务</t>
+  </si>
+  <si>
+    <t>登录阿里云</t>
+  </si>
+  <si>
+    <t>设置的密码</t>
+  </si>
+  <si>
+    <t>Lu123456</t>
+  </si>
+  <si>
+    <t>判断主机是否正常联网</t>
+  </si>
+  <si>
+    <t>ping www.baidu.com</t>
+  </si>
+  <si>
+    <t>获取当前IP地址
+lo本机回环地址
+eth0阿里云内网地址
+docker0是docker地址 生成的网卡</t>
+  </si>
+  <si>
+    <t>ip addr</t>
+  </si>
+  <si>
+    <t>docker run -d -P --name tomcat05 tomcat</t>
+  </si>
+  <si>
+    <t>查看容器内部网络地址</t>
+  </si>
+  <si>
+    <t>docker exec -it {id} ip addr</t>
+  </si>
+  <si>
+    <t>等价于
+docker exec -it {id} /bin/bash
+ip addr
+报错：bash: ip: command not found
+yum -y install net-tools
+报错：bash: yum: command not found
+百度  容器内yum: command not found
+apt-get update
+apt-get install yum
+报错：E: Unable to locate package yum</t>
   </si>
 </sst>
 </file>
@@ -1522,6 +1620,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1535,13 +1640,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1680,12 +1778,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1994,10 +2098,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2006,31 +2110,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2051,28 +2155,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2081,19 +2185,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2105,81 +2206,90 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2249,13 +2359,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1581785</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2273,7 +2383,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="10066020"/>
+          <a:off x="7620" y="10614660"/>
           <a:ext cx="3684905" cy="1768475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2287,13 +2397,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1897380</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3825240</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>153670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2311,7 +2421,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4008120" y="10096500"/>
+          <a:off x="4008120" y="10645140"/>
           <a:ext cx="1927860" cy="1761490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2389,6 +2499,353 @@
         <a:xfrm>
           <a:off x="2133600" y="769620"/>
           <a:ext cx="1866265" cy="1023620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4587875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="ali10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3573780" y="5664200"/>
+          <a:ext cx="3810635" cy="1433195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4876800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139065</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="ali14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7673340" y="5618480"/>
+          <a:ext cx="3850005" cy="1488440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="ali15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="7538720"/>
+          <a:ext cx="2960370" cy="1502410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3769360</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="ali16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3230880" y="7493000"/>
+          <a:ext cx="3335020" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4320540</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="ali17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7117080" y="7485380"/>
+          <a:ext cx="4271645" cy="1905635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="ali18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99060" y="9527540"/>
+          <a:ext cx="3253740" cy="1851025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46990</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>268605</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="ali08"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46990" y="5664200"/>
+          <a:ext cx="3018155" cy="1448435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4514850</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="ali19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3649980" y="9855200"/>
+          <a:ext cx="3661410" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1892935</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="ali13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="2336800"/>
+          <a:ext cx="4681855" cy="2280285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2687,10 +3144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2703,15 +3160,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2719,159 +3176,146 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="13"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" ht="86.4" spans="1:2">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" t="s">
+    <row r="12" ht="115.2" spans="1:2">
+      <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" ht="115.2" spans="1:2">
-      <c r="A14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="14" ht="57.6" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="57.6" spans="1:2">
-      <c r="A16" s="5" t="s">
+    <row r="15" ht="57.6" spans="1:2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" ht="57.6" spans="1:2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" ht="57.6" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" ht="57.6" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="22" ht="72" spans="1:2">
+      <c r="A22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="158.4" spans="1:2">
       <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" ht="72" spans="1:2">
-      <c r="A24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" ht="158.4" spans="1:2">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A16:A17"/>
+  <mergeCells count="1">
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId2" display="https://www.docker.com"/>
@@ -2902,87 +3346,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="1"/>
+      <c r="A1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="2:2">
+      <c r="B4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" ht="86.4" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" ht="28.8" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="5" ht="86.4" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" ht="57.6" spans="1:2">
+      <c r="A7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="7" ht="57.6" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" ht="86.4" spans="2:2">
-      <c r="B13" s="9" t="s">
-        <v>164</v>
+      <c r="B13" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3011,54 +3455,54 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" ht="86.4" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="6" ht="86.4" spans="1:2">
-      <c r="A6" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="1"/>
+      <c r="A10" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3075,8 +3519,8 @@
   <sheetPr/>
   <dimension ref="A2:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3087,185 +3531,185 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" ht="172.8" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" ht="172.8" spans="1:2">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:2">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
-        <v>184</v>
+      <c r="B12" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3286,8 +3730,8 @@
   <sheetPr/>
   <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3297,104 +3741,104 @@
   </cols>
   <sheetData>
     <row r="2" ht="43.2" spans="2:2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" ht="360" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" ht="360" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="4" ht="43.2" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="2:2">
+      <c r="B7" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="8" ht="100.8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="7" ht="43.2" spans="2:2">
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" ht="100.8" spans="1:2">
-      <c r="A8" s="2" t="s">
+    <row r="9" ht="201.6" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="9" ht="201.6" spans="1:2">
-      <c r="A9" s="2" t="s">
+    <row r="10" ht="273.6" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="10" ht="273.6" spans="1:2">
-      <c r="A10" s="2" t="s">
+    <row r="11" ht="43.2" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" ht="43.2" spans="1:2">
-      <c r="A11" s="5" t="s">
+    <row r="12" ht="43.2" spans="1:2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" ht="43.2" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>230</v>
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="15" ht="43.2" spans="1:2">
       <c r="A15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3413,69 +3857,146 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="25" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="2:2">
+    </row>
+    <row r="4" ht="28.8" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:2">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:2">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" ht="25" customHeight="1" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
       <c r="B2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" ht="28.8" spans="1:2">
-      <c r="A6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" ht="57.6" spans="1:2">
-      <c r="A8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" ht="144" spans="1:2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3488,7 +4009,7 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3499,109 +4020,109 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" ht="43.2" spans="1:2">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="1:2">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" ht="57.6" spans="1:2">
+      <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="18" ht="57.6" spans="1:2">
-      <c r="A18" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3619,8 +4140,8 @@
   <sheetPr/>
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3631,90 +4152,90 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" ht="100.8" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="6" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="4" ht="100.8" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" ht="72" spans="1:2">
       <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="1:2">
       <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
       <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:2">
       <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="1:2">
       <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" ht="100.8" spans="1:2">
+      <c r="A12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="12" ht="100.8" spans="1:2">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3741,80 +4262,80 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="57.6" spans="1:2">
       <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +4353,7 @@
   <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3843,97 +4364,97 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="13" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:2">
-      <c r="A7" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:2">
       <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="14" ht="28.8" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3961,32 +4482,32 @@
   </cols>
   <sheetData>
     <row r="2" ht="43.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>111</v>
+      <c r="A2" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4012,35 +4533,35 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="5" ht="28.8" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4071,22 +4592,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="3" ht="57.6" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="3" ht="57.6" spans="1:2">
-      <c r="A3" s="9" t="s">
+    </row>
+    <row r="4" ht="86.4" spans="2:2">
+      <c r="B4" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" ht="86.4" spans="2:2">
-      <c r="B4" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4103,8 +4624,8 @@
   <sheetPr/>
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4115,109 +4636,109 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="86.4" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>130</v>
+      <c r="A5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>135</v>
+        <v>65</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="11" s="11" customFormat="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="11" s="12" customFormat="1"/>
     <row r="12" ht="28.8" spans="1:2">
       <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
-        <v>86</v>
+      <c r="B13" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
       <c r="A15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="1:2">
       <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="19" ht="28.8" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/java/Docker.xlsx
+++ b/java/Docker.xlsx
@@ -4,31 +4,34 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="723" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
     <sheet name="镜像命令" sheetId="2" r:id="rId2"/>
     <sheet name="容器命令" sheetId="3" r:id="rId3"/>
-    <sheet name="安装Nginx" sheetId="4" r:id="rId4"/>
-    <sheet name="部署tomcat" sheetId="5" r:id="rId5"/>
-    <sheet name="部署ES+Kibana" sheetId="6" r:id="rId6"/>
-    <sheet name="可视化面板" sheetId="7" r:id="rId7"/>
-    <sheet name="容器数据卷" sheetId="8" r:id="rId8"/>
-    <sheet name="mysql同步数据" sheetId="9" r:id="rId9"/>
-    <sheet name="Dockerfile" sheetId="10" r:id="rId10"/>
-    <sheet name="数据卷容器同步" sheetId="11" r:id="rId11"/>
-    <sheet name="构建自己的centos" sheetId="12" r:id="rId12"/>
-    <sheet name="构建tomcat镜像" sheetId="13" r:id="rId13"/>
-    <sheet name="发布镜像" sheetId="14" r:id="rId14"/>
-    <sheet name="Docker网络" sheetId="15" r:id="rId15"/>
+    <sheet name="容器加命令" sheetId="17" r:id="rId4"/>
+    <sheet name="安装Nginx" sheetId="4" r:id="rId5"/>
+    <sheet name="部署tomcat" sheetId="5" r:id="rId6"/>
+    <sheet name="部署ES+Kibana" sheetId="6" r:id="rId7"/>
+    <sheet name="可视化面板" sheetId="7" r:id="rId8"/>
+    <sheet name="容器数据卷" sheetId="8" r:id="rId9"/>
+    <sheet name="mysql同步数据" sheetId="9" r:id="rId10"/>
+    <sheet name="Dockerfile" sheetId="10" r:id="rId11"/>
+    <sheet name="数据卷容器同步" sheetId="11" r:id="rId12"/>
+    <sheet name="构建自己的centos" sheetId="12" r:id="rId13"/>
+    <sheet name="构建tomcat镜像" sheetId="13" r:id="rId14"/>
+    <sheet name="发布镜像" sheetId="14" r:id="rId15"/>
+    <sheet name="Docker网络" sheetId="15" r:id="rId16"/>
+    <sheet name="部署Redis集群" sheetId="16" r:id="rId17"/>
+    <sheet name="SpringBoot打包镜像" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="334">
   <si>
     <t>Docker官网</t>
   </si>
@@ -103,6 +106,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>环境查看，</t>
     </r>
     <r>
@@ -582,6 +592,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">从容器内拷贝文件到主机
 </t>
     </r>
@@ -604,6 +621,60 @@
 touch test.java   新建文件
 exit 停止并退出容器
 docker cp {id}:/home/test.java /home</t>
+  </si>
+  <si>
+    <t>容器没有的命令</t>
+  </si>
+  <si>
+    <t>报错示例</t>
+  </si>
+  <si>
+    <t>bash: ip: command not found</t>
+  </si>
+  <si>
+    <t>apt-get update</t>
+  </si>
+  <si>
+    <t>ip addr</t>
+  </si>
+  <si>
+    <t>apt install -y iproute2</t>
+  </si>
+  <si>
+    <t>ifconfig</t>
+  </si>
+  <si>
+    <t>apt install net-tools</t>
+  </si>
+  <si>
+    <t>vim {name}</t>
+  </si>
+  <si>
+    <t>apt install vim</t>
+  </si>
+  <si>
+    <t>yum -y install net-tools</t>
+  </si>
+  <si>
+    <t>apt install yum
+报错：E: Unable to locate package yum
+没有yum命令说明这个容器的系统很可能不是Centos系而是Ubuntu或者其他操作系统
+cat /proc/version  查看是否是乌班图  要进入容器</t>
+  </si>
+  <si>
+    <t>apt install wget</t>
+  </si>
+  <si>
+    <t>apt install iputils-ping</t>
+  </si>
+  <si>
+    <t>yum、apt、rpm的区别</t>
+  </si>
+  <si>
+    <t>Linux操作系统是有不同种类的，常见的有RedHat、Debian
+yum：属于Redhat、Centos系的软件包管理工具
+apt：属于Debian、Ubuntu系的软件包管理工具
+rpm其实也是红帽公司开发的软件包管理工具</t>
   </si>
   <si>
     <t>搜索Nginx镜像</t>
@@ -1214,9 +1285,6 @@
   </si>
   <si>
     <t>vim draw</t>
-  </si>
-  <si>
-    <t>ifconfig</t>
   </si>
   <si>
     <t>变更历史</t>
@@ -1336,13 +1404,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">启动镜像
 </t>
     </r>
@@ -1429,14 +1490,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">http://39.108.174.145:9090
 </t>
     </r>
@@ -1454,14 +1507,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">http://39.108.174.145:9090/test
 </t>
     </r>
@@ -1479,6 +1524,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">docker exec -it {id} /bin/bash
 cd /usr/local
 ls  </t>
@@ -1577,28 +1629,325 @@
 docker0是docker地址 生成的网卡</t>
   </si>
   <si>
-    <t>ip addr</t>
-  </si>
-  <si>
     <t>docker run -d -P --name tomcat05 tomcat</t>
   </si>
   <si>
     <t>查看容器内部网络地址</t>
   </si>
   <si>
-    <t>docker exec -it {id} ip addr</t>
-  </si>
-  <si>
-    <t>等价于
+    <r>
+      <t xml:space="preserve">docker exec -it {id} ip addr     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>得到容器网络地址172.17.0.3</t>
+    </r>
+  </si>
+  <si>
+    <t>等价于    这里不推荐，因为别进入容器
 docker exec -it {id} /bin/bash
-ip addr
-报错：bash: ip: command not found
-yum -y install net-tools
-报错：bash: yum: command not found
-百度  容器内yum: command not found
-apt-get update
-apt-get install yum
-报错：E: Unable to locate package yum</t>
+ip addr</t>
+  </si>
+  <si>
+    <r>
+      <t>主机ping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>容器地址，通了
+原理：容器启动都会分配一个ip。docker有个网卡docker0桥接每个容器，相当于路由器，物理网卡管理路由器，使用的是evth-pair技术</t>
+    </r>
+  </si>
+  <si>
+    <t>ping 172.17.0.3</t>
+  </si>
+  <si>
+    <t>ip addr  启动了一个容器，多了一对网卡</t>
+  </si>
+  <si>
+    <t>docker run -d -P --name tomcat07 tomcat</t>
+  </si>
+  <si>
+    <t>容器里ping,一样的</t>
+  </si>
+  <si>
+    <t>docker exec -it tomcat05 ping 172.17.0.3</t>
+  </si>
+  <si>
+    <t>结论</t>
+  </si>
+  <si>
+    <t>容器与容器之间是可以互相ping通的</t>
+  </si>
+  <si>
+    <t>容器删了，网卡，网桥就没了</t>
+  </si>
+  <si>
+    <t>ping不同</t>
+  </si>
+  <si>
+    <t>docker exec -it tomcat05 ping tomcat07</t>
+  </si>
+  <si>
+    <t>容器互联</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run -d -P --name tomcat09 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tomcat07 tomcat</t>
+    </r>
+  </si>
+  <si>
+    <t>docker exec -it tomcat09 ping tomcat07</t>
+  </si>
+  <si>
+    <t>docker network --help</t>
+  </si>
+  <si>
+    <t>docker network ls</t>
+  </si>
+  <si>
+    <t>docker network inspect {id}或{name}</t>
+  </si>
+  <si>
+    <t>查看hosts配置</t>
+  </si>
+  <si>
+    <t>docker exec -it tomcat07 cat /etc/hosts</t>
+  </si>
+  <si>
+    <t>自定义网络
+--subnet子网
+--gateway网关</t>
+  </si>
+  <si>
+    <t>docker network create --driver bridge --subnet 192.168.0.0/16 --gateway 192.168.0.1 mynet</t>
+  </si>
+  <si>
+    <t>docker network inspect mynet</t>
+  </si>
+  <si>
+    <t>运行容器，走自定义网络
+--net bridge默认就有，不用写
+现在用--net 网络名</t>
+  </si>
+  <si>
+    <t>docker run -d -P --name tomcat12 --net mynet tomcat</t>
+  </si>
+  <si>
+    <t>docker network inspect mynet
+看见Containers多了个容器</t>
+  </si>
+  <si>
+    <t>自定义网络不使用--link也能ping通了</t>
+  </si>
+  <si>
+    <t>docker exec -it tomcat12 ping 192.168.0.3</t>
+  </si>
+  <si>
+    <t>网络连通</t>
+  </si>
+  <si>
+    <t>docker network connect --help</t>
+  </si>
+  <si>
+    <t>网络与容器的连接
+一个容器两个ip</t>
+  </si>
+  <si>
+    <t>docker network connect mynet tomcat05</t>
+  </si>
+  <si>
+    <t>ping通了</t>
+  </si>
+  <si>
+    <t>docker exec -it tomcat05 mynet</t>
+  </si>
+  <si>
+    <t>创建网卡</t>
+  </si>
+  <si>
+    <t>docker network create redis --subnet 172.38.0.0/16</t>
+  </si>
+  <si>
+    <t>创建6个redis服务
+解读
+遍历6个redis
+新建配置文件，集群配置
+yes是开启集群</t>
+  </si>
+  <si>
+    <t>for port in $(seq 1 6); \
+do \
+mkdir -p /mydata/redis/node-${port}/conf
+touch /mydata/redis/node-${port}/conf/redis.conf
+cat &lt;&lt; EOF &gt;&gt;/mydata/redis/node-${port}/conf/redis.conf
+port 6379
+bind 0.0.0.0
+cluster-enabled yes
+cluster-config-file nodes.conf
+cluster-node-timeout 5000
+cluster-announce-ip 172.38.0.1${port}
+cluster-announce-port 6379
+cluster-announce-bus-port 16379
+appendonly yes
+EOF
+done</t>
+  </si>
+  <si>
+    <t>看6个节点</t>
+  </si>
+  <si>
+    <t>cd /mydata/redis
+ls
+cd /mydata/redis/node-1/conf
+ls
+cat redis.conf</t>
+  </si>
+  <si>
+    <t>启动6个redis</t>
+  </si>
+  <si>
+    <t>docker run -p 637${port}:6379 -p 1637${port}:16379 --name redis-${port} \
+-v /mydata/redis/node-${port}/data:/data \
+-v /mydata/redis/node-${port}/conf/redis.conf:/etc/redis/redis.conf \
+-d --net redis --ip 172.38.0.1${port} redis:5.0.9-alpine3.11 redis-server /etc/redis/redis.conf
+${port}变1、2、3、4、5、6    比如下面
+docker run -p 6371:6379 -p 16371:16379 --name redis-1 \
+-v /mydata/redis/node-1/data:/data \
+-v /mydata/redis/node-1/conf/redis.conf:/etc/redis/redis.conf \
+-d --net redis --ip 172.38.0.11 redis:5.0.9-alpine3.11 redis-server /etc/redis/redis.conf</t>
+  </si>
+  <si>
+    <t>docker exec -it redis-1 /bin/sh
+ls</t>
+  </si>
+  <si>
+    <t>创建集群
+执行中写yes</t>
+  </si>
+  <si>
+    <t>redis-cli --cluster create 172.38.0.11:6379 172.38.0.12:6379 172.38.0.13:6379 172.38.0.14:6379 172.38.0.15:6379 172.38.0.16:6379 --cluster-replicas 1</t>
+  </si>
+  <si>
+    <t>进入集群</t>
+  </si>
+  <si>
+    <t>redis-cli -c</t>
+  </si>
+  <si>
+    <t>查看集群信息</t>
+  </si>
+  <si>
+    <t>cluster info</t>
+  </si>
+  <si>
+    <t>查看集群节点
+master主机
+slave从机</t>
+  </si>
+  <si>
+    <t>cluster nodes</t>
+  </si>
+  <si>
+    <t>set a b      看到是redis-3在执行</t>
+  </si>
+  <si>
+    <t>get a</t>
+  </si>
+  <si>
+    <t>docker stop redis-3    停redis-3容器
+get a     在redis-4获取到了
+cluster nodes     看到redis-3状态fail  redis-4成为master</t>
+  </si>
+  <si>
+    <t>SpringBoot微服务打包Docker镜像</t>
+  </si>
+  <si>
+    <t>linux部署springboot项目--新</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/gaogaosen/article/details/125908777</t>
+  </si>
+  <si>
+    <t>cd /home/SpringBoot</t>
+  </si>
+  <si>
+    <t>该目录放入SpringBoot打包好的jar包</t>
+  </si>
+  <si>
+    <t>touch Dockerfile</t>
+  </si>
+  <si>
+    <t>将所有jar包复制
+服务端口号
+向外面暴露的端口
+容器启动的时候运行的命令</t>
+  </si>
+  <si>
+    <t>vim Dockerfile
+输入脚本
+FROM openjdk:11
+COPY *.jar /app.jar
+CMD ["--server.port=8080"]
+EXPOSE 8080
+ENTRYPOINT ["java","-jar","/app.jar"]</t>
+  </si>
+  <si>
+    <t>构建镜像</t>
+  </si>
+  <si>
+    <t>docker build -t springboot .</t>
+  </si>
+  <si>
+    <t>启动镜像</t>
+  </si>
+  <si>
+    <t>docker run -d -p 9091:8080 --name springboot01 springboot</t>
+  </si>
+  <si>
+    <t>docker ps     docker ps找不到容器用docker ps -a
+如果容器状态时Exited，则说明容器启动不成功</t>
+  </si>
+  <si>
+    <t>curl localhost:9091</t>
+  </si>
+  <si>
+    <t>http://39.108.174.145:9091</t>
+  </si>
+  <si>
+    <t>交付给客户的是镜像</t>
   </si>
 </sst>
 </file>
@@ -1620,6 +1969,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1630,14 +1987,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2122,13 +2471,13 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -2245,49 +2594,49 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3160,15 +3509,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3176,54 +3525,54 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="13"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" ht="86.4" spans="1:2">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="115.2" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3236,24 +3585,24 @@
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" ht="57.6" spans="1:2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3282,7 +3631,7 @@
       </c>
     </row>
     <row r="20" ht="57.6" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
@@ -3298,10 +3647,10 @@
       </c>
     </row>
     <row r="22" ht="72" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3309,7 +3658,7 @@
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3333,10 +3682,138 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A2:B19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="86.4" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:2">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="11" s="15" customFormat="1"/>
+    <row r="12" ht="28.8" spans="1:2">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:2">
+      <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" ht="43.2" spans="1:2">
+      <c r="A17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3346,48 +3823,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>149</v>
+      <c r="B4" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" ht="86.4" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>151</v>
+      <c r="A5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" ht="57.6" spans="1:2">
-      <c r="A7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>154</v>
+      <c r="A7" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -3397,36 +3874,36 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" ht="86.4" spans="2:2">
-      <c r="B13" s="6" t="s">
-        <v>162</v>
+      <c r="B13" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3438,7 +3915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B12"/>
@@ -3460,49 +3937,49 @@
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" ht="86.4" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>167</v>
+      <c r="A6" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="10"/>
+      <c r="A10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3514,13 +3991,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3531,52 +4008,52 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>172</v>
+      <c r="B4" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="5" ht="172.8" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>174</v>
+      <c r="A5" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>175</v>
+      <c r="B6" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>179</v>
+      <c r="A8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8" t="s">
-        <v>180</v>
+      <c r="A9" s="6"/>
+      <c r="B9" s="12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -3586,130 +4063,130 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
-        <v>182</v>
+      <c r="B12" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="9"/>
+      <c r="A18" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3725,13 +4202,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3741,24 +4218,24 @@
   </cols>
   <sheetData>
     <row r="2" ht="43.2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>211</v>
+      <c r="B2" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" ht="360" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>213</v>
+      <c r="A3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>214</v>
+      <c r="A4" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -3767,78 +4244,78 @@
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>217</v>
+      <c r="A6" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="2:2">
-      <c r="B7" s="1" t="s">
-        <v>218</v>
+      <c r="B7" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8" ht="100.8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>220</v>
+      <c r="A8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="9" ht="201.6" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>222</v>
+      <c r="A9" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10" ht="273.6" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>224</v>
+      <c r="A10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="11" ht="43.2" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>226</v>
+      <c r="A11" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7" t="s">
-        <v>227</v>
+      <c r="A12" s="6"/>
+      <c r="B12" s="11" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>228</v>
+      <c r="B14" s="10" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="15" ht="43.2" spans="1:2">
       <c r="A15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3854,7 +4331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B25"/>
@@ -3870,27 +4347,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="4"/>
+      <c r="A1" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="5" t="s">
-        <v>232</v>
+      <c r="B2" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>235</v>
+      <c r="A4" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -3900,37 +4377,37 @@
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>251</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B23" s="4"/>
+      <c r="A23" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="5" t="s">
-        <v>240</v>
+      <c r="B24" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3944,16 +4421,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
@@ -3961,43 +4438,431 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>245</v>
+      <c r="A3" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" ht="144" spans="1:2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>250</v>
+      <c r="A5" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" ht="72" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" ht="43.2" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" ht="43.2" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" ht="28.8" spans="2:2">
+      <c r="B28" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" ht="28.8" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A5:A6"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" ht="230.4" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" ht="72" spans="1:2">
+      <c r="A6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" ht="158.4" spans="1:2">
+      <c r="A7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="2:2">
+      <c r="B9" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" ht="43.2" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" ht="43.2" spans="2:2">
+      <c r="B16" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="100.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" ht="100.8" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="2:2">
+      <c r="B11" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" display="http://39.108.174.145:9091" tooltip="http://39.108.174.145:9091"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://blog.csdn.net/gaogaosen/article/details/125908777"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4046,12 +4911,12 @@
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="13"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4065,7 +4930,7 @@
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4073,7 +4938,7 @@
       <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4105,7 +4970,7 @@
       <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4113,15 +4978,15 @@
       <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" ht="57.6" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4140,7 +5005,7 @@
   <sheetPr/>
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -4167,10 +5032,10 @@
       </c>
     </row>
     <row r="4" ht="100.8" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4178,7 +5043,7 @@
       <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4186,7 +5051,7 @@
       <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4194,7 +5059,7 @@
       <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4202,7 +5067,7 @@
       <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4210,7 +5075,7 @@
       <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4218,7 +5083,7 @@
       <c r="A10" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4226,15 +5091,15 @@
       <c r="A11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" ht="100.8" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4246,6 +5111,99 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B12:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" ht="57.6" spans="1:2">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" ht="57.6" spans="1:2">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B12"/>
@@ -4262,23 +5220,23 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -4286,10 +5244,10 @@
     </row>
     <row r="5" ht="57.6" spans="1:2">
       <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4297,45 +5255,45 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>88</v>
+      <c r="A8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4347,7 +5305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B17"/>
@@ -4364,26 +5322,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4396,18 +5354,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>101</v>
+      <c r="A7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4415,33 +5373,33 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:2">
       <c r="A12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>106</v>
+      <c r="A14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -4451,10 +5409,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4466,7 +5424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B5"/>
@@ -4482,32 +5440,32 @@
   </cols>
   <sheetData>
     <row r="2" ht="43.2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>109</v>
+      <c r="A2" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4516,7 +5474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B6"/>
@@ -4533,35 +5491,35 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>117</v>
+      <c r="A3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="13" t="s">
-        <v>118</v>
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
-        <v>119</v>
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +5534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
@@ -4592,22 +5550,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="3" ht="57.6" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>123</v>
+      <c r="A3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="2:2">
-      <c r="B4" s="6" t="s">
-        <v>124</v>
+      <c r="B4" s="10" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4617,132 +5575,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:B19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" ht="86.4" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" spans="1:2">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="11" s="12" customFormat="1"/>
-    <row r="12" ht="28.8" spans="1:2">
-      <c r="A12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" ht="28.8" spans="1:2">
-      <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" ht="43.2" spans="1:2">
-      <c r="A17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" ht="28.8" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>